--- a/Project 2/Проект 2 Cпринта веб-приложение.xlsx
+++ b/Project 2/Проект 2 Cпринта веб-приложение.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katy/Documents/Тестирование/Домашняя работа 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51DA1F-A73A-7240-9C3A-8AE0DD74475A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16042B37-4F6C-674E-8F9E-B4BBD9F81600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1. Конфигурации браузер" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 1. Чек-лист и ФР тестир" sheetId="2" r:id="rId2"/>
     <sheet name="Задание 1. Тест-кейсы логика ин" sheetId="3" r:id="rId3"/>
     <sheet name="Задание 2. Чек-лист и ФР" sheetId="4" r:id="rId4"/>
-    <sheet name="mindmap" sheetId="5" r:id="rId5"/>
-    <sheet name="блок-схема" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1687,104 +1685,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C0701B-BAEB-7D47-9794-AD4436A1868E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="38100"/>
-          <a:ext cx="15011400" cy="6350000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50830</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFCDAE5-DA2C-7949-A04E-B6E6EE1409D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="101600"/>
-          <a:ext cx="7861300" cy="8369330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1988,7 +1888,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2895,7 +2795,7 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5292,7 +5192,7 @@
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
@@ -6245,34 +6145,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE23AE5-B528-784B-B0F0-BFABC5EF4584}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5D11C0-3975-1D43-BCE8-EF73F5CD2AF5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>